--- a/biology/Zoologie/Amnosia_decora/Amnosia_decora.xlsx
+++ b/biology/Zoologie/Amnosia_decora/Amnosia_decora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amnosia
 Amnosia decora, unique représentant du genre Amnosia, est une espèce de papillons de la sous-famille des Cyrestinae (famille des Nymphalidae).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amnosia decora se rencontre en Asie du Sud-Est.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (29 août 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (29 août 2023) :
 Amnosia decora baluana Fruhstorfer, 1894 - Nord de Bornéo
 Amnosia decora decora Doubleday, 1849 - Ouest de Java
 Amnosia decora decorina Fruhstorfer, 1894 - Nias
@@ -555,7 +571,7 @@
 Amnosia decora ochracea Fruhstorfer, 1908
 Amnosia decora perakana Fruhstorfer, 1908 - Malaisie
 Amnosia decora petronia Fruhstorfer, 1908 - Nord de Bornéo
-Contrairement aux autres sources listées ci-dessous, l’Animal Diversity Web considère ces sous-espèces comme des espèces à part entière[2].
+Contrairement aux autres sources listées ci-dessous, l’Animal Diversity Web considère ces sous-espèces comme des espèces à part entière.
 </t>
         </is>
       </c>
